--- a/DatosPrueba/Budget2019-ventas.xlsx
+++ b/DatosPrueba/Budget2019-ventas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pidatastrategy-my.sharepoint.com/personal/ibarrau_piconsulting_com_ar/Documents/PBI - Transferencia conocimiento/SQLBI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBARRAU\Documents\GitHub\PowerBi-code\DatosPrueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDDF0013-21E5-4C6C-ADDA-E5653A35B505}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF24545A-6087-4848-941F-471FE726F633}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{536673F3-CB62-4F21-8917-4A7B67934060}"/>
   </bookViews>
@@ -44,42 +44,6 @@
     <t>Gerente</t>
   </si>
   <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
-  </si>
-  <si>
     <t>NOA</t>
   </si>
   <si>
@@ -117,6 +81,42 @@
   </si>
   <si>
     <t>Santiago</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
+    <t>2019-05</t>
+  </si>
+  <si>
+    <t>2019-06</t>
+  </si>
+  <si>
+    <t>2019-07</t>
+  </si>
+  <si>
+    <t>2019-08</t>
+  </si>
+  <si>
+    <t>2019-09</t>
+  </si>
+  <si>
+    <t>2019-10</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2019-12</t>
   </si>
 </sst>
 </file>
@@ -184,40 +184,40 @@
     <tableColumn id="1" xr3:uid="{93CDE717-0C3E-4750-966F-863C40F1D118}" name="Region"/>
     <tableColumn id="2" xr3:uid="{34736291-7A6A-444B-BA2A-0259923E0688}" name="Area"/>
     <tableColumn id="3" xr3:uid="{3574630E-1292-47A6-97F7-F4D59AE0D2E3}" name="Gerente"/>
-    <tableColumn id="4" xr3:uid="{76A00148-FE61-411D-9203-F98038B44C04}" name="Enero">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{2731EC9C-070A-467E-9B06-EAF89D0EB45F}" name="Febrero">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{649FE385-0C51-4714-9830-254F40E8A8EE}" name="Marzo">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D381E6A-785A-4D39-855D-5AC5156E92D6}" name="Abril">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{56305839-A972-4F48-A3DF-EB49F8A9B699}" name="Mayo">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{1A340739-648A-4292-9F6A-6378E1F0FBEF}" name="Junio">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{165A75FB-3039-4661-8D1E-928716C189A0}" name="Julio">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{23DB4C71-2413-4164-90AA-B6165A497A7A}" name="Agosto">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{705D01FF-BF74-426E-95AF-9722620247AD}" name="Septiembre">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{A5381A30-2DB9-474B-967B-BB3ABC15DFFB}" name="Octubre">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{705030FF-5626-47C1-BC7F-DFE95F44B93D}" name="Noviembre">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{3400B6C5-4372-4BE4-9A95-2743BF873747}" name="Diciembre">
+    <tableColumn id="4" xr3:uid="{76A00148-FE61-411D-9203-F98038B44C04}" name="2019-01">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{2731EC9C-070A-467E-9B06-EAF89D0EB45F}" name="2019-02">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{649FE385-0C51-4714-9830-254F40E8A8EE}" name="2019-03">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4D381E6A-785A-4D39-855D-5AC5156E92D6}" name="2019-04">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{56305839-A972-4F48-A3DF-EB49F8A9B699}" name="2019-05">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{1A340739-648A-4292-9F6A-6378E1F0FBEF}" name="2019-06">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{165A75FB-3039-4661-8D1E-928716C189A0}" name="2019-07">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{23DB4C71-2413-4164-90AA-B6165A497A7A}" name="2019-08">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{705D01FF-BF74-426E-95AF-9722620247AD}" name="2019-09">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{A5381A30-2DB9-474B-967B-BB3ABC15DFFB}" name="2019-10">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{705030FF-5626-47C1-BC7F-DFE95F44B93D}" name="2019-11">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{3400B6C5-4372-4BE4-9A95-2743BF873747}" name="2019-12">
       <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -525,7 +525,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,394 +547,394 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(10000,100000)</f>
-        <v>75518</v>
+        <v>19506</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:O7" ca="1" si="0">RANDBETWEEN(10000,100000)</f>
-        <v>96922</v>
+        <v>66076</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>18671</v>
+        <v>74993</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>12011</v>
+        <v>42786</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>98486</v>
+        <v>61131</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>10075</v>
+        <v>57464</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>49678</v>
+        <v>30585</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>33677</v>
+        <v>98322</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>66551</v>
+        <v>74275</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>62622</v>
+        <v>36894</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>66933</v>
+        <v>93839</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>58741</v>
+        <v>41593</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" ca="1" si="1">RANDBETWEEN(10000,100000)</f>
-        <v>94869</v>
+        <v>24933</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>58760</v>
+        <v>96956</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>51989</v>
+        <v>91697</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>75526</v>
+        <v>34119</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>27883</v>
+        <v>49360</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>84002</v>
+        <v>70730</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>70524</v>
+        <v>89840</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>12861</v>
+        <v>84639</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>22008</v>
+        <v>27519</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>95831</v>
+        <v>41382</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>15900</v>
+        <v>57815</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>85382</v>
+        <v>13698</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>49560</v>
+        <v>18453</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>18441</v>
+        <v>66138</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>27117</v>
+        <v>63373</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>42238</v>
+        <v>65330</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>17912</v>
+        <v>63129</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>67126</v>
+        <v>89243</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>99893</v>
+        <v>79032</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>95815</v>
+        <v>89041</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>78867</v>
+        <v>22359</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>41590</v>
+        <v>68170</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>28866</v>
+        <v>29873</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>79593</v>
+        <v>71791</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>27230</v>
+        <v>60310</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>70338</v>
+        <v>59688</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>36878</v>
+        <v>13185</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>33722</v>
+        <v>13104</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>84314</v>
+        <v>43014</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>38909</v>
+        <v>12743</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>76751</v>
+        <v>68468</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>86971</v>
+        <v>71039</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>63038</v>
+        <v>63828</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>21533</v>
+        <v>63967</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>31812</v>
+        <v>40752</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>80121</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>98705</v>
+        <v>47403</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>37855</v>
+        <v>84359</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>10353</v>
+        <v>80246</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>48321</v>
+        <v>41718</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>52660</v>
+        <v>54589</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>32980</v>
+        <v>45945</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>92003</v>
+        <v>85428</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>10795</v>
+        <v>95302</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>50644</v>
+        <v>84925</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>62586</v>
+        <v>95855</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>63866</v>
+        <v>11242</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>28918</v>
+        <v>83645</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>47459</v>
+        <v>24922</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>34707</v>
+        <v>89278</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>99975</v>
+        <v>94481</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>95963</v>
+        <v>78318</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>51733</v>
+        <v>56919</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>37894</v>
+        <v>75904</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>88161</v>
+        <v>71052</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>71565</v>
+        <v>59760</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>36782</v>
+        <v>67518</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>48702</v>
+        <v>86688</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>90061</v>
+        <v>26528</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>20425</v>
+        <v>90463</v>
       </c>
     </row>
   </sheetData>
